--- a/formats/excel/Formats RPSA 16.xlsx
+++ b/formats/excel/Formats RPSA 16.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Github/formats_pmeasyr/formats/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="690" windowWidth="24435" windowHeight="10935"/>
+    <workbookView xWindow="1460" yWindow="460" windowWidth="27340" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -111,9 +124,6 @@
     <t xml:space="preserve">N° séquentiel de séjour </t>
   </si>
   <si>
-    <t>NOSEJPSY</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mode d'entrée de séjour </t>
   </si>
   <si>
@@ -289,6 +299,9 @@
   </si>
   <si>
     <t>ZAD</t>
+  </si>
+  <si>
+    <t>NOSEQSEJ</t>
   </si>
 </sst>
 </file>
@@ -344,7 +357,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Bureau">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -382,14 +395,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Bureau">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -419,12 +432,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -454,7 +467,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Bureau">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -631,15 +644,15 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="66.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="66.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -679,7 +692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -699,7 +712,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -719,7 +732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -739,7 +752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -759,7 +772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -779,7 +792,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -799,7 +812,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -819,7 +832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -839,7 +852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -859,7 +872,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -879,7 +892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -896,12 +909,12 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>32</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -916,12 +929,12 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -936,12 +949,12 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>36</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -956,12 +969,12 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -976,12 +989,12 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>40</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -996,12 +1009,12 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>42</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1016,12 +1029,12 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>44</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1036,12 +1049,12 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>46</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1056,12 +1069,12 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>48</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -1076,12 +1089,12 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>50</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1096,12 +1109,12 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>52</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1116,12 +1129,12 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>54</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1136,12 +1149,12 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>56</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -1156,12 +1169,12 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>58</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1176,12 +1189,12 @@
         <v>20</v>
       </c>
       <c r="F27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>60</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1196,12 +1209,12 @@
         <v>20</v>
       </c>
       <c r="F28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>62</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -1216,12 +1229,12 @@
         <v>20</v>
       </c>
       <c r="F29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>64</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -1236,12 +1249,12 @@
         <v>20</v>
       </c>
       <c r="F30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>66</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1256,12 +1269,12 @@
         <v>7</v>
       </c>
       <c r="F31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>68</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1276,12 +1289,12 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>70</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1296,12 +1309,12 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>72</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1316,12 +1329,12 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>74</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1336,12 +1349,12 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>76</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1356,12 +1369,12 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>78</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1376,12 +1389,12 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>80</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1396,12 +1409,12 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>82</v>
       </c>
       <c r="B39">
         <v>19</v>
@@ -1416,12 +1429,12 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>84</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1436,12 +1449,12 @@
         <v>7</v>
       </c>
       <c r="F40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>86</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -1456,12 +1469,12 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>88</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -1476,10 +1489,10 @@
         <v>20</v>
       </c>
       <c r="F42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>5</v>
       </c>
@@ -1493,7 +1506,7 @@
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +1521,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1520,7 +1533,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
